--- a/Excel-Practice/Home Sales-DIY.xlsx
+++ b/Excel-Practice/Home Sales-DIY.xlsx
@@ -8,33 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE715B5-400F-46AA-859C-FA10CB70A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7E6F1-E261-4245-9FFD-00B037E11984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Address</t>
   </si>
@@ -591,7 +579,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -601,6 +589,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
@@ -980,16 +971,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
@@ -1022,47 +1013,39 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>275000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>430000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>550000</v>
+        <v>385500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1">
-        <v>385500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <f>SUM(B3:B8)</f>
-        <v>2265500</v>
+        <f>SUM(B3:B7)</f>
+        <v>1990500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
